--- a/docs/cardreview.xlsx
+++ b/docs/cardreview.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\enbu\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E0727E-2731-4A01-A2CF-2D6A557EC5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AF2084-2327-4621-A9C6-6E60DBB03D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2964" yWindow="2016" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="tensholist" sheetId="1" r:id="rId1"/>
+    <sheet name="haoulist" sheetId="2" r:id="rId1"/>
+    <sheet name="tensholist" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="86">
   <si>
     <t>攻撃</t>
     <phoneticPr fontId="1"/>
@@ -39,39 +40,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>S</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>S</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -85,122 +54,349 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[菓失焦慮]山本勘助</t>
+    <t>BT001</t>
+  </si>
+  <si>
+    <t>BT014</t>
+  </si>
+  <si>
+    <t>BT013</t>
+  </si>
+  <si>
+    <t>BT012</t>
+  </si>
+  <si>
+    <t>BT011</t>
+  </si>
+  <si>
+    <t>BT010</t>
+  </si>
+  <si>
+    <t>BT009</t>
+  </si>
+  <si>
+    <t>BT008</t>
+  </si>
+  <si>
+    <t>BT007</t>
+  </si>
+  <si>
+    <t>BT006</t>
+  </si>
+  <si>
+    <t>BT005</t>
+  </si>
+  <si>
+    <t>BT004</t>
+  </si>
+  <si>
+    <t>BT003</t>
+  </si>
+  <si>
+    <t>BT002</t>
+  </si>
+  <si>
+    <t>BT015</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BT016</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>SS(B)</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SS(?)</t>
+  </si>
+  <si>
+    <t>必要数</t>
+    <rPh sb="0" eb="3">
+      <t>ヒツヨウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呂布</t>
+    <rPh sb="0" eb="2">
+      <t>リョフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BT018</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BT017</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毛利元就</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>徳川家康</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長宗我部元親</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>BT001</t>
-  </si>
-  <si>
-    <t>BT014</t>
-  </si>
-  <si>
-    <t>BT013</t>
-  </si>
-  <si>
-    <t>BT012</t>
-  </si>
-  <si>
-    <t>BT011</t>
-  </si>
-  <si>
-    <t>BT010</t>
-  </si>
-  <si>
-    <t>BT009</t>
-  </si>
-  <si>
-    <t>BT008</t>
-  </si>
-  <si>
-    <t>BT007</t>
-  </si>
-  <si>
-    <t>BT006</t>
-  </si>
-  <si>
-    <t>BT005</t>
-  </si>
-  <si>
-    <t>BT004</t>
-  </si>
-  <si>
-    <t>BT003</t>
-  </si>
-  <si>
-    <t>BT002</t>
-  </si>
-  <si>
-    <t>BT015</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BT016</t>
-  </si>
-  <si>
-    <t>[豪雄美髯]関羽</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[紫電喝道]立花道雪</t>
+    <t>今川義元</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立花道雪</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[華冑大望]今川義元</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[南海勁風]長宗我部元親</t>
+    <t>関羽</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山県昌景</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[唱導赫葵]徳川家康</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[大身槍攘]結城秀康</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[謝徳一心]本多正信</t>
+    <t>徳川秀忠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高坂昌信</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[炯眼明断]太原雪斎</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[迅撃戦鬼]佐竹義重</t>
+    <t>可児才蔵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北条氏政</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[疾風之勢]福島正則</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[抗拒不承]北条氏政</t>
+    <t>佐竹義重</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[激流憤豪]可児才蔵</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[尊崇堅塁]高坂昌信</t>
+    <t>福島正則</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太原雪斎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本多正信</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[勝勢強圧]徳川秀忠</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[緋威蹶然]山県昌景</t>
+    <t>結城秀康</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山本勘助</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>武将カード</t>
+    <t>天将カード</t>
     <rPh sb="0" eb="2">
-      <t>ブショウ</t>
+      <t>テンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>島津義弘</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石田光成</t>
+    <rPh sb="2" eb="4">
+      <t>ミツナリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浅井長政</t>
+    <rPh sb="0" eb="4">
+      <t>アザイナガマサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滝川一益</t>
+    <rPh sb="0" eb="4">
+      <t>タキガワカズマス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑賀孫一</t>
+    <rPh sb="0" eb="2">
+      <t>サイガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マゴイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>徳川家康</t>
+    <rPh sb="0" eb="4">
+      <t>トクガワイエヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加藤清正</t>
+    <rPh sb="0" eb="4">
+      <t>カトウキヨマサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三好長慶</t>
+    <rPh sb="0" eb="4">
+      <t>ミヨシナガヨシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長宗我部元親</t>
+    <rPh sb="0" eb="6">
+      <t>チョウソカベモトチカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明智光秀</t>
+    <rPh sb="0" eb="4">
+      <t>アケチミツヒデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹中半兵衛</t>
+    <rPh sb="0" eb="5">
+      <t>タケナカハンベエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>織田信長</t>
+    <rPh sb="0" eb="4">
+      <t>オダノブナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武田信玄</t>
+    <rPh sb="0" eb="4">
+      <t>タケダシンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上杉謙信</t>
+    <rPh sb="0" eb="4">
+      <t>ウエスギケンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>豊臣秀吉</t>
+    <rPh sb="0" eb="4">
+      <t>トヨトミヒデヨシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒田官兵衛</t>
+    <rPh sb="0" eb="5">
+      <t>クロダカンベエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>BH001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BH002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BH016</t>
+  </si>
+  <si>
+    <t>BH015</t>
+  </si>
+  <si>
+    <t>BH014</t>
+  </si>
+  <si>
+    <t>BH013</t>
+  </si>
+  <si>
+    <t>BH012</t>
+  </si>
+  <si>
+    <t>BH011</t>
+  </si>
+  <si>
+    <t>BH010</t>
+  </si>
+  <si>
+    <t>BH009</t>
+  </si>
+  <si>
+    <t>BH008</t>
+  </si>
+  <si>
+    <t>BH007</t>
+  </si>
+  <si>
+    <t>BH006</t>
+  </si>
+  <si>
+    <t>BH005</t>
+  </si>
+  <si>
+    <t>BH004</t>
+  </si>
+  <si>
+    <t>BH003</t>
+  </si>
+  <si>
+    <t>覇王カード</t>
+    <rPh sb="0" eb="2">
+      <t>ハオウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -261,9 +457,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -543,11 +748,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F79234-3101-4BD8-BACE-B6BBFE0197C3}">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -557,10 +762,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -573,275 +778,685 @@
       </c>
     </row>
     <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.796875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>42</v>
       </c>
       <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="E13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="F13" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="4">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/docs/cardreview.xlsx
+++ b/docs/cardreview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\enbu\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\td16385\Desktop\新しいフォルダー\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AF2084-2327-4621-A9C6-6E60DBB03D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6E0EE9-207C-43C6-BD9A-E6BA991185F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="haoulist" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="87">
   <si>
     <t>攻撃</t>
     <phoneticPr fontId="1"/>
@@ -398,6 +398,10 @@
     <rPh sb="0" eb="2">
       <t>ハオウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -752,12 +756,12 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -904,13 +908,13 @@
         <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -995,7 +999,7 @@
         <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1029,7 +1033,7 @@
         <v>22</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1073,10 +1077,10 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="17.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.796875" style="3"/>
+    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/docs/cardreview.xlsx
+++ b/docs/cardreview.xlsx
@@ -8,25 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\td16385\Desktop\新しいフォルダー\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6E0EE9-207C-43C6-BD9A-E6BA991185F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EA6D95-B951-460A-B0DF-3C9BF23360E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="haoulist" sheetId="2" r:id="rId1"/>
     <sheet name="tensholist" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="88">
   <si>
     <t>攻撃</t>
     <phoneticPr fontId="1"/>
@@ -402,6 +413,10 @@
   </si>
   <si>
     <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -755,7 +770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F79234-3101-4BD8-BACE-B6BBFE0197C3}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1073,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1117,7 +1132,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="F2" s="4">
         <v>8</v>

--- a/docs/cardreview.xlsx
+++ b/docs/cardreview.xlsx
@@ -1,43 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\td16385\Desktop\新しいフォルダー\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\enbu\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EA6D95-B951-460A-B0DF-3C9BF23360E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E2A509-C5DE-4C8E-848B-AD5E004613B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="haoulist" sheetId="2" r:id="rId1"/>
     <sheet name="tensholist" sheetId="1" r:id="rId2"/>
+    <sheet name="shinsholist" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="118">
   <si>
     <t>攻撃</t>
     <phoneticPr fontId="1"/>
@@ -417,6 +407,204 @@
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>母里友信</t>
+    <rPh sb="0" eb="1">
+      <t>ハハ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>サト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トモノブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>石川数正</t>
+    <rPh sb="0" eb="2">
+      <t>イシカワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>島津豊久</t>
+    <rPh sb="0" eb="2">
+      <t>シマズ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トヨヒサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>足利正昭</t>
+    <rPh sb="0" eb="2">
+      <t>アシカガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マサアキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北畠具教</t>
+    <rPh sb="0" eb="2">
+      <t>キタバタケ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>グ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陶晴賢</t>
+    <rPh sb="0" eb="1">
+      <t>スエ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハルカタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>細川藤孝</t>
+    <rPh sb="0" eb="4">
+      <t>ホソカワフジタカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>立花道雪</t>
+    <rPh sb="0" eb="2">
+      <t>タチバナ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドウセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蒲生氏郷</t>
+    <rPh sb="0" eb="4">
+      <t>ガモウウジサト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山県昌景</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマガタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マサ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カゲ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毛利元就</t>
+    <rPh sb="0" eb="4">
+      <t>モウリモトナリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>松永久秀</t>
+    <rPh sb="0" eb="4">
+      <t>マツナガヒサヒデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>島津義弘</t>
+    <rPh sb="0" eb="2">
+      <t>シマズ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BS001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BS002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BS013</t>
+  </si>
+  <si>
+    <t>BS012</t>
+  </si>
+  <si>
+    <t>BS011</t>
+  </si>
+  <si>
+    <t>BS010</t>
+  </si>
+  <si>
+    <t>BS009</t>
+  </si>
+  <si>
+    <t>BS008</t>
+  </si>
+  <si>
+    <t>BS007</t>
+  </si>
+  <si>
+    <t>BS006</t>
+  </si>
+  <si>
+    <t>BS005</t>
+  </si>
+  <si>
+    <t>BS004</t>
+  </si>
+  <si>
+    <t>BS003</t>
+  </si>
+  <si>
+    <t>12(4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BS014</t>
+  </si>
+  <si>
+    <t>鍋島直茂</t>
+    <rPh sb="0" eb="2">
+      <t>ナベシマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スナオ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シゲル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SS(※)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -774,9 +962,9 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1088,14 +1276,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="3"/>
+    <col min="1" max="1" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1482,4 +1670,354 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FACD5F7-EEFC-44D4-9084-11C0119B4E05}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.796875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>